--- a/Data_R_MSB_210/Tab_10539_13470_Nov.xlsx
+++ b/Data_R_MSB_210/Tab_10539_13470_Nov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindreespedal/Downloads/Data_R_MSB_210/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindreespedal/Documents/HVL /Vaar_2023/The_thesis/Data_R_MSB_210/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267F9578-5908-2948-BA98-02C8E1DD5067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EF4385-1AE3-1941-BF6A-B3C6FE6E0DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="500" windowWidth="17940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November" sheetId="2" r:id="rId1"/>
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -123,9 +123,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +428,7 @@
   <dimension ref="A1:W831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -471,7 +468,7 @@
         <v>50535</v>
       </c>
       <c r="E2" s="7">
-        <v>1.422776293657861</v>
+        <v>1.4028173410855738</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -488,7 +485,7 @@
         <v>50069</v>
       </c>
       <c r="E3" s="7">
-        <v>2.7282350356508016</v>
+        <v>2.6557791387187715</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -505,7 +502,7 @@
         <v>50158</v>
       </c>
       <c r="E4" s="7">
-        <v>3.0663104589497188</v>
+        <v>2.9750851129681211</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -522,7 +519,7 @@
         <v>51406</v>
       </c>
       <c r="E5" s="7">
-        <v>2.5016535034820837</v>
+        <v>2.4405981932741216</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -539,7 +536,7 @@
         <v>51755</v>
       </c>
       <c r="E6" s="7">
-        <v>2.2548546034199592</v>
+        <v>2.2051320811760702</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -556,7 +553,7 @@
         <v>52110</v>
       </c>
       <c r="E7" s="7">
-        <v>2.7096526578391864</v>
+        <v>2.6381674825305481</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -587,7 +584,7 @@
         <v>52663</v>
       </c>
       <c r="E8" s="7">
-        <v>3.0457816683439987</v>
+        <v>2.9557558000257984</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
@@ -606,7 +603,7 @@
         <v>51252</v>
       </c>
       <c r="E9" s="7">
-        <v>4.351049715133068</v>
+        <v>4.1696271642795706</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="4"/>
@@ -638,7 +635,7 @@
         <v>51104</v>
       </c>
       <c r="E10" s="7">
-        <v>4.1386192861615534</v>
+        <v>3.9741445724271407</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -655,7 +652,7 @@
         <v>52112</v>
       </c>
       <c r="E11" s="7">
-        <v>2.6193583051888241</v>
+        <v>2.5524992052658151</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -672,7 +669,7 @@
         <v>52102</v>
       </c>
       <c r="E12" s="7">
-        <v>2.4106560208821159</v>
+        <v>2.3539113160163425</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -689,7 +686,7 @@
         <v>52486</v>
       </c>
       <c r="E13" s="7">
-        <v>1.8138170178714323</v>
+        <v>1.7815037987948652</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -706,7 +703,7 @@
         <v>52065</v>
       </c>
       <c r="E14" s="7">
-        <v>3.4149620666474596</v>
+        <v>3.3021934141856883</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -716,15 +713,14 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="2">
         <v>44980</v>
       </c>
       <c r="D15">
         <v>2525001</v>
       </c>
-      <c r="E15" s="10">
-        <f>(C15/D15)*100</f>
-        <v>1.7813854331146799</v>
+      <c r="E15" s="7">
+        <v>1.7502074918063597</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -734,15 +730,14 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="2">
         <v>65285</v>
       </c>
       <c r="D16">
         <v>2497001</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" ref="E16:E27" si="0">(C16/D16)*100</f>
-        <v>2.6145363978628762</v>
+      <c r="E16" s="7">
+        <v>2.5479200994736733</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -752,15 +747,14 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>69365</v>
       </c>
       <c r="D17">
         <v>2516999</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>2.7558612458725649</v>
+      <c r="E17" s="7">
+        <v>2.6819504137855303</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -783,15 +777,14 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>61595</v>
       </c>
       <c r="D18">
         <v>2562001</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>2.4041754862703018</v>
+      <c r="E18" s="7">
+        <v>2.3477318916479519</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -801,15 +794,14 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>60503</v>
       </c>
       <c r="D19">
         <v>2589001</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3369245512072032</v>
+      <c r="E19" s="7">
+        <v>2.2835594888703699</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -832,15 +824,14 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>68239</v>
       </c>
       <c r="D20">
         <v>2619000</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6055364642993508</v>
+      <c r="E20" s="7">
+        <v>2.5393721957741757</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -850,17 +841,16 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21">
         <v>71007</v>
       </c>
       <c r="D21">
         <v>2650001</v>
       </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6795084228270101</v>
-      </c>
-      <c r="J21" s="8"/>
+      <c r="E21" s="7">
+        <v>2.6095843893145481</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -869,17 +859,16 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22">
         <v>79158</v>
       </c>
       <c r="D22">
         <v>2597064</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>3.0479803347164336</v>
-      </c>
-      <c r="J22" s="8"/>
+      <c r="E22" s="7">
+        <v>2.9578263686644828</v>
+      </c>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -888,17 +877,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <v>78154</v>
       </c>
       <c r="D23">
         <v>2613654</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>2.9902198225166758</v>
-      </c>
-      <c r="J23" s="8"/>
+      <c r="E23" s="7">
+        <v>2.9034017285036673</v>
+      </c>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -907,17 +895,16 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <v>64215</v>
       </c>
       <c r="D24">
         <v>2647297</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>2.4256817425472095</v>
-      </c>
-      <c r="J24" s="8"/>
+      <c r="E24" s="7">
+        <v>2.3682358772522489</v>
+      </c>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -926,17 +913,16 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <v>62433</v>
       </c>
       <c r="D25">
         <v>2683448</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3265962299250815</v>
-      </c>
-      <c r="J25" s="8"/>
+      <c r="E25" s="7">
+        <v>2.2736964930381176</v>
+      </c>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -945,17 +931,16 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26">
         <v>59454</v>
       </c>
       <c r="D26">
         <v>2710436</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>2.1935216326819744</v>
-      </c>
-      <c r="J26" s="8"/>
+      <c r="E26" s="7">
+        <v>2.1464390282646604</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -964,47 +949,46 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27">
         <v>108987</v>
       </c>
       <c r="D27">
         <v>2681542</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>4.0643405920921616</v>
-      </c>
-      <c r="J27" s="8"/>
+      <c r="E27" s="7">
+        <v>3.9056035611885775</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
